--- a/ProjetEval/.Preparation/ToDo.xlsx
+++ b/ProjetEval/.Preparation/ToDo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13824" windowHeight="9720"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+  <si>
+    <t>Preparation Projet</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Connection base</t>
+  </si>
   <si>
     <t>Login</t>
   </si>
@@ -50,28 +59,19 @@
     <t>String, int, decimal, date, heure, timestamp</t>
   </si>
   <si>
-    <t>redimensionnement image</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>inserttion</t>
+  </si>
+  <si>
+    <t>redimention</t>
   </si>
   <si>
     <t>session, protection de la page</t>
   </si>
   <si>
-    <t>hachage</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>salage</t>
-  </si>
-  <si>
-    <t>date inscription</t>
-  </si>
-  <si>
-    <t>pepper</t>
-  </si>
-  <si>
-    <t>appareil</t>
+    <t>hachage(id),salage(date inscription),pepper(appareil)</t>
   </si>
   <si>
     <t>Client</t>
@@ -116,28 +116,16 @@
     <t>xlsx</t>
   </si>
   <si>
-    <t>Recherche</t>
+    <t>import + verification erreur</t>
+  </si>
+  <si>
+    <t>Recherche(Profil)</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
     <t>multicritère</t>
-  </si>
-  <si>
-    <t>multimot</t>
-  </si>
-  <si>
-    <t>full text</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>csv, xlsx</t>
-  </si>
-  <si>
-    <t>verification erreur</t>
   </si>
   <si>
     <t>Tableau de bord</t>
@@ -781,8 +769,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,36 +1091,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.0555555555556" customWidth="1"/>
     <col min="2" max="2" width="32.0833333333333" customWidth="1"/>
-    <col min="3" max="3" width="25.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="9.02777777777778" customWidth="1"/>
-    <col min="5" max="5" width="88.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="96.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="37.6111111111111" customWidth="1"/>
+    <col min="5" max="5" width="11.2407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1141,180 +1138,247 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="D11"/>
+      <c r="E11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="E13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+      <c r="E19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+      <c r="E20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
+    <row r="27" spans="3:5">
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+      <c r="E30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row r="32" spans="5:5">
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
+      <c r="E33">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="1">
+        <f>SUM(E1:E41)</f>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43">
+        <f>E42/60</f>
+        <v>7.41666666666667</v>
       </c>
     </row>
   </sheetData>
